--- a/Firmware_UNIV_3.5.0.1/rev0/univ_3-5-0-1-rev0-memory.xlsx
+++ b/Firmware_UNIV_3.5.0.1/rev0/univ_3-5-0-1-rev0-memory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="15195" windowHeight="7965" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="525" windowWidth="15195" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MEMORY MAP" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="1769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1936" uniqueCount="1768">
   <si>
     <t>000000h</t>
   </si>
@@ -5321,9 +5321,6 @@
   </si>
   <si>
     <t>Instruction working registers</t>
-  </si>
-  <si>
-    <t>Enable module feature register:  (value '1' enables '0' disables) bit&lt;0&gt; - enable IR receiver</t>
   </si>
   <si>
     <t>Interrupts shadow registers</t>
@@ -6058,24 +6055,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -6089,6 +6068,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6108,6 +6093,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6205,72 +6202,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6316,6 +6247,24 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6348,6 +6297,54 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6676,11 +6673,11 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="103" t="s">
         <v>960</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="100" t="s">
         <v>953</v>
       </c>
       <c r="E2" s="42"/>
@@ -6688,7 +6685,7 @@
       <c r="H2" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="105" t="s">
         <v>267</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -6696,76 +6693,76 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="109"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="42"/>
-      <c r="D3" s="107"/>
+      <c r="D3" s="101"/>
       <c r="E3" s="42"/>
       <c r="F3" s="43"/>
       <c r="H3" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="103"/>
+      <c r="I3" s="105"/>
       <c r="J3" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="109"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="42"/>
-      <c r="D4" s="107"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="42"/>
       <c r="F4" s="43"/>
       <c r="H4" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="103"/>
+      <c r="I4" s="105"/>
       <c r="J4" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="109"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="42"/>
-      <c r="D5" s="107"/>
+      <c r="D5" s="101"/>
       <c r="E5" s="42"/>
       <c r="F5" s="43"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="103"/>
+      <c r="I5" s="105"/>
       <c r="M5" s="28"/>
     </row>
     <row r="6" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="109"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="42"/>
-      <c r="D6" s="107"/>
+      <c r="D6" s="101"/>
       <c r="E6" s="42"/>
       <c r="F6" s="43"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="103"/>
+      <c r="I6" s="105"/>
       <c r="M6" s="28"/>
     </row>
     <row r="7" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="109"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="42"/>
-      <c r="D7" s="107"/>
+      <c r="D7" s="101"/>
       <c r="E7" s="42"/>
       <c r="F7" s="43"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="103"/>
+      <c r="I7" s="105"/>
       <c r="J7" s="1" t="s">
         <v>328</v>
       </c>
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="109"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="42"/>
-      <c r="D8" s="107"/>
+      <c r="D8" s="101"/>
       <c r="E8" s="42"/>
       <c r="F8" s="43"/>
       <c r="H8" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="I8" s="104" t="s">
+      <c r="I8" s="113" t="s">
         <v>957</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -6774,131 +6771,131 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="109"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="42"/>
-      <c r="D9" s="107"/>
+      <c r="D9" s="101"/>
       <c r="E9" s="42"/>
       <c r="F9" s="43"/>
       <c r="H9" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="I9" s="104"/>
+      <c r="I9" s="113"/>
       <c r="J9" s="1" t="s">
         <v>330</v>
       </c>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
+      <c r="B10" s="103"/>
       <c r="C10" s="42"/>
-      <c r="D10" s="107"/>
+      <c r="D10" s="101"/>
       <c r="E10" s="42"/>
       <c r="F10" s="43"/>
       <c r="H10" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="I10" s="104"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="1" t="s">
         <v>331</v>
       </c>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
+      <c r="B11" s="103"/>
       <c r="C11" s="42"/>
-      <c r="D11" s="107"/>
+      <c r="D11" s="101"/>
       <c r="E11" s="42"/>
       <c r="F11" s="43"/>
       <c r="H11" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="104"/>
+      <c r="I11" s="113"/>
       <c r="J11" s="1" t="s">
         <v>332</v>
       </c>
       <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="42"/>
-      <c r="D12" s="107"/>
+      <c r="D12" s="101"/>
       <c r="E12" s="42"/>
       <c r="F12" s="43"/>
       <c r="H12" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="I12" s="104"/>
+      <c r="I12" s="113"/>
       <c r="J12" s="1" t="s">
         <v>333</v>
       </c>
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="42"/>
-      <c r="D13" s="107"/>
+      <c r="D13" s="101"/>
       <c r="E13" s="42"/>
       <c r="F13" s="43"/>
       <c r="H13" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="104"/>
+      <c r="I13" s="113"/>
       <c r="J13" s="1" t="s">
         <v>334</v>
       </c>
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="109"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="42"/>
-      <c r="D14" s="107"/>
+      <c r="D14" s="101"/>
       <c r="E14" s="42"/>
       <c r="F14" s="43"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="104"/>
+      <c r="I14" s="113"/>
       <c r="M14" s="28"/>
     </row>
     <row r="15" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="109"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="42"/>
-      <c r="D15" s="107"/>
+      <c r="D15" s="101"/>
       <c r="E15" s="42"/>
       <c r="F15" s="43"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="104"/>
+      <c r="I15" s="113"/>
       <c r="M15" s="28"/>
     </row>
     <row r="16" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="109"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="42"/>
-      <c r="D16" s="107"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="42"/>
       <c r="F16" s="43"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="104"/>
+      <c r="I16" s="113"/>
       <c r="M16" s="28"/>
     </row>
     <row r="17" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="109"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="42"/>
-      <c r="D17" s="107"/>
+      <c r="D17" s="101"/>
       <c r="E17" s="42"/>
       <c r="F17" s="43"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="104"/>
+      <c r="I17" s="113"/>
       <c r="J17" s="1" t="s">
         <v>259</v>
       </c>
       <c r="M17" s="28"/>
     </row>
     <row r="18" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="109"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="42"/>
-      <c r="D18" s="107"/>
+      <c r="D18" s="101"/>
       <c r="E18" s="42"/>
       <c r="F18" s="43"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="103" t="s">
+      <c r="I18" s="105" t="s">
         <v>956</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -6906,101 +6903,101 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="109"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="42"/>
-      <c r="D19" s="107"/>
+      <c r="D19" s="101"/>
       <c r="E19" s="42"/>
       <c r="F19" s="43"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="103"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="109"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="107"/>
+      <c r="D20" s="101"/>
       <c r="E20" s="42"/>
       <c r="F20" s="43"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="103"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="109"/>
+      <c r="B21" s="103"/>
       <c r="C21" s="42"/>
-      <c r="D21" s="107"/>
+      <c r="D21" s="101"/>
       <c r="E21" s="42"/>
       <c r="F21" s="43"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="103"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="109"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="42"/>
-      <c r="D22" s="107"/>
+      <c r="D22" s="101"/>
       <c r="E22" s="42"/>
       <c r="F22" s="43"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="103"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="109"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="42"/>
-      <c r="D23" s="107"/>
+      <c r="D23" s="101"/>
       <c r="E23" s="42"/>
       <c r="F23" s="43"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="103"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="109"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="42"/>
-      <c r="D24" s="107"/>
+      <c r="D24" s="101"/>
       <c r="E24" s="42"/>
       <c r="F24" s="43"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="103"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="109"/>
+      <c r="B25" s="103"/>
       <c r="C25" s="42"/>
-      <c r="D25" s="107"/>
+      <c r="D25" s="101"/>
       <c r="E25" s="42"/>
       <c r="F25" s="43"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="103"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="109"/>
+      <c r="B26" s="103"/>
       <c r="C26" s="42"/>
-      <c r="D26" s="107"/>
+      <c r="D26" s="101"/>
       <c r="E26" s="42"/>
       <c r="F26" s="43"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="103"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="109"/>
+      <c r="B27" s="103"/>
       <c r="C27" s="42"/>
-      <c r="D27" s="107"/>
+      <c r="D27" s="101"/>
       <c r="E27" s="42"/>
       <c r="F27" s="43"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="103"/>
+      <c r="I27" s="105"/>
       <c r="J27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="109"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="42"/>
-      <c r="D28" s="107"/>
+      <c r="D28" s="101"/>
       <c r="E28" s="42"/>
-      <c r="F28" s="106" t="s">
+      <c r="F28" s="100" t="s">
         <v>892</v>
       </c>
-      <c r="H28" s="100" t="s">
+      <c r="H28" s="114" t="s">
         <v>892</v>
       </c>
-      <c r="I28" s="103" t="s">
+      <c r="I28" s="105" t="s">
         <v>955</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -7008,99 +7005,99 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="109"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="42"/>
-      <c r="D29" s="107"/>
+      <c r="D29" s="101"/>
       <c r="E29" s="42"/>
-      <c r="F29" s="107"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="103"/>
+      <c r="F29" s="101"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="105"/>
     </row>
     <row r="30" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="109"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="42"/>
-      <c r="D30" s="107"/>
+      <c r="D30" s="101"/>
       <c r="E30" s="42"/>
-      <c r="F30" s="107"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="103"/>
+      <c r="F30" s="101"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="109"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="42"/>
-      <c r="D31" s="107"/>
+      <c r="D31" s="101"/>
       <c r="E31" s="42"/>
-      <c r="F31" s="107"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="103"/>
+      <c r="F31" s="101"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" spans="2:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="109"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="42"/>
-      <c r="D32" s="107"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="42"/>
-      <c r="F32" s="107"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="103"/>
+      <c r="F32" s="101"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="109"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="42"/>
-      <c r="D33" s="107"/>
+      <c r="D33" s="101"/>
       <c r="E33" s="42"/>
-      <c r="F33" s="107"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="103"/>
+      <c r="F33" s="101"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="109"/>
+      <c r="B34" s="103"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="107"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="42"/>
-      <c r="F34" s="107"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="103"/>
+      <c r="F34" s="101"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="109"/>
+      <c r="B35" s="103"/>
       <c r="C35" s="42"/>
-      <c r="D35" s="107"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="42"/>
-      <c r="F35" s="107"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="103"/>
+      <c r="F35" s="101"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="109"/>
+      <c r="B36" s="103"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="107"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="42"/>
-      <c r="F36" s="107"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="103"/>
+      <c r="F36" s="101"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="109"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="107"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="42"/>
-      <c r="F37" s="107"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="103"/>
+      <c r="F37" s="101"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="105"/>
       <c r="J37" s="1" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="109"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="42"/>
-      <c r="D38" s="107"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="42"/>
-      <c r="F38" s="107"/>
-      <c r="H38" s="100" t="s">
+      <c r="F38" s="101"/>
+      <c r="H38" s="114" t="s">
         <v>892</v>
       </c>
-      <c r="I38" s="104" t="s">
+      <c r="I38" s="113" t="s">
         <v>954</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -7108,117 +7105,117 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="109"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="42"/>
-      <c r="D39" s="107"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="42"/>
-      <c r="F39" s="107"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="104"/>
+      <c r="F39" s="101"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="113"/>
     </row>
     <row r="40" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="109"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="107"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="42"/>
-      <c r="F40" s="107"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="104"/>
+      <c r="F40" s="101"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="113"/>
     </row>
     <row r="41" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="109"/>
+      <c r="B41" s="103"/>
       <c r="C41" s="42"/>
-      <c r="D41" s="107"/>
+      <c r="D41" s="101"/>
       <c r="E41" s="42"/>
-      <c r="F41" s="107"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="104"/>
+      <c r="F41" s="101"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="113"/>
     </row>
     <row r="42" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="109"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="42"/>
-      <c r="D42" s="107"/>
+      <c r="D42" s="101"/>
       <c r="E42" s="42"/>
-      <c r="F42" s="107"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="104"/>
+      <c r="F42" s="101"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="113"/>
     </row>
     <row r="43" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="109"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="42"/>
-      <c r="D43" s="107"/>
+      <c r="D43" s="101"/>
       <c r="E43" s="42"/>
-      <c r="F43" s="107"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="104"/>
+      <c r="F43" s="101"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="113"/>
     </row>
     <row r="44" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="109"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="42"/>
-      <c r="D44" s="107"/>
+      <c r="D44" s="101"/>
       <c r="E44" s="42"/>
-      <c r="F44" s="107"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="104"/>
+      <c r="F44" s="101"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="113"/>
     </row>
     <row r="45" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="109"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="42"/>
-      <c r="D45" s="107"/>
+      <c r="D45" s="101"/>
       <c r="E45" s="42"/>
-      <c r="F45" s="107"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="104"/>
+      <c r="F45" s="101"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="113"/>
     </row>
     <row r="46" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="109"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="42"/>
-      <c r="D46" s="107"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="42"/>
-      <c r="F46" s="107"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="104"/>
+      <c r="F46" s="101"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="113"/>
     </row>
     <row r="47" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="109"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="42"/>
-      <c r="D47" s="108"/>
+      <c r="D47" s="102"/>
       <c r="E47" s="42"/>
-      <c r="F47" s="108"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="104"/>
+      <c r="F47" s="102"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="113"/>
       <c r="J47" s="1" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="109"/>
+      <c r="B48" s="103"/>
       <c r="C48" s="42"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="43"/>
-      <c r="H48" s="105" t="s">
+      <c r="H48" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="I48" s="105"/>
+      <c r="I48" s="106"/>
       <c r="J48" s="1" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="109"/>
+      <c r="B49" s="103"/>
       <c r="C49" s="42"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="43"/>
-      <c r="H49" s="105"/>
-      <c r="I49" s="105"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
       <c r="J49" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="109"/>
+      <c r="B50" s="103"/>
       <c r="C50" s="42"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -7226,7 +7223,7 @@
       <c r="H50" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="I50" s="111" t="s">
+      <c r="I50" s="107" t="s">
         <v>273</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -7234,7 +7231,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="109"/>
+      <c r="B51" s="103"/>
       <c r="C51" s="42"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -7242,10 +7239,10 @@
       <c r="H51" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="I51" s="112"/>
+      <c r="I51" s="108"/>
     </row>
     <row r="52" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="109"/>
+      <c r="B52" s="103"/>
       <c r="C52" s="42"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -7253,10 +7250,10 @@
       <c r="H52" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="I52" s="112"/>
+      <c r="I52" s="108"/>
     </row>
     <row r="53" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="109"/>
+      <c r="B53" s="103"/>
       <c r="C53" s="42"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -7264,10 +7261,10 @@
       <c r="H53" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="I53" s="112"/>
+      <c r="I53" s="108"/>
     </row>
     <row r="54" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="109"/>
+      <c r="B54" s="103"/>
       <c r="C54" s="42"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -7275,10 +7272,10 @@
       <c r="H54" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="112"/>
+      <c r="I54" s="108"/>
     </row>
     <row r="55" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="109"/>
+      <c r="B55" s="103"/>
       <c r="C55" s="42"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -7286,10 +7283,10 @@
       <c r="H55" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="I55" s="112"/>
+      <c r="I55" s="108"/>
     </row>
     <row r="56" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="109"/>
+      <c r="B56" s="103"/>
       <c r="C56" s="42"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -7297,10 +7294,10 @@
       <c r="H56" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="I56" s="112"/>
+      <c r="I56" s="108"/>
     </row>
     <row r="57" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="109"/>
+      <c r="B57" s="103"/>
       <c r="C57" s="42"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -7308,39 +7305,39 @@
       <c r="H57" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="I57" s="113"/>
+      <c r="I57" s="109"/>
       <c r="J57" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="109"/>
+      <c r="B58" s="103"/>
       <c r="C58" s="42"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="43"/>
-      <c r="H58" s="105" t="s">
+      <c r="H58" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="I58" s="105"/>
+      <c r="I58" s="106"/>
       <c r="J58" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="109"/>
+      <c r="B59" s="103"/>
       <c r="C59" s="42"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="43"/>
-      <c r="H59" s="105"/>
-      <c r="I59" s="105"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
       <c r="J59" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="109"/>
+      <c r="B60" s="103"/>
       <c r="C60" s="42"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -7348,7 +7345,7 @@
       <c r="H60" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="I60" s="114" t="s">
+      <c r="I60" s="110" t="s">
         <v>253</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -7356,7 +7353,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="109"/>
+      <c r="B61" s="103"/>
       <c r="C61" s="42"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -7364,10 +7361,10 @@
       <c r="H61" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="I61" s="115"/>
+      <c r="I61" s="111"/>
     </row>
     <row r="62" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="109"/>
+      <c r="B62" s="103"/>
       <c r="C62" s="42"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -7375,10 +7372,10 @@
       <c r="H62" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="I62" s="115"/>
+      <c r="I62" s="111"/>
     </row>
     <row r="63" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="109"/>
+      <c r="B63" s="103"/>
       <c r="C63" s="42"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -7386,10 +7383,10 @@
       <c r="H63" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="I63" s="115"/>
+      <c r="I63" s="111"/>
     </row>
     <row r="64" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="109"/>
+      <c r="B64" s="103"/>
       <c r="C64" s="42"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -7397,10 +7394,10 @@
       <c r="H64" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="I64" s="115"/>
+      <c r="I64" s="111"/>
     </row>
     <row r="65" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="109"/>
+      <c r="B65" s="103"/>
       <c r="C65" s="42"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -7408,10 +7405,10 @@
       <c r="H65" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="I65" s="115"/>
+      <c r="I65" s="111"/>
     </row>
     <row r="66" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="109"/>
+      <c r="B66" s="103"/>
       <c r="C66" s="42"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -7419,10 +7416,10 @@
       <c r="H66" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="I66" s="115"/>
+      <c r="I66" s="111"/>
     </row>
     <row r="67" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="109"/>
+      <c r="B67" s="103"/>
       <c r="C67" s="42"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -7430,10 +7427,10 @@
       <c r="H67" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="I67" s="115"/>
+      <c r="I67" s="111"/>
     </row>
     <row r="68" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="109"/>
+      <c r="B68" s="103"/>
       <c r="C68" s="42"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -7441,10 +7438,10 @@
       <c r="H68" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="I68" s="115"/>
+      <c r="I68" s="111"/>
     </row>
     <row r="69" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="109"/>
+      <c r="B69" s="103"/>
       <c r="C69" s="42"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -7452,10 +7449,10 @@
       <c r="H69" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="I69" s="115"/>
+      <c r="I69" s="111"/>
     </row>
     <row r="70" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="109"/>
+      <c r="B70" s="103"/>
       <c r="C70" s="42"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -7463,10 +7460,10 @@
       <c r="H70" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I70" s="115"/>
+      <c r="I70" s="111"/>
     </row>
     <row r="71" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="109"/>
+      <c r="B71" s="103"/>
       <c r="C71" s="42"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -7474,39 +7471,39 @@
       <c r="H71" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="I71" s="116"/>
+      <c r="I71" s="112"/>
       <c r="J71" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="109"/>
+      <c r="B72" s="103"/>
       <c r="C72" s="42"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="43"/>
-      <c r="H72" s="105" t="s">
+      <c r="H72" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="I72" s="105"/>
+      <c r="I72" s="106"/>
       <c r="J72" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="109"/>
+      <c r="B73" s="103"/>
       <c r="C73" s="42"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="43"/>
-      <c r="H73" s="105"/>
-      <c r="I73" s="105"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
       <c r="J73" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="109"/>
+      <c r="B74" s="103"/>
       <c r="C74" s="42"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -7514,7 +7511,7 @@
       <c r="H74" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="I74" s="111" t="s">
+      <c r="I74" s="107" t="s">
         <v>262</v>
       </c>
       <c r="J74" s="1" t="s">
@@ -7522,7 +7519,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="109"/>
+      <c r="B75" s="103"/>
       <c r="C75" s="42"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -7530,7 +7527,7 @@
       <c r="H75" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I75" s="113"/>
+      <c r="I75" s="109"/>
       <c r="J75" s="1" t="s">
         <v>252</v>
       </c>
@@ -7541,10 +7538,10 @@
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="43"/>
-      <c r="H76" s="105" t="s">
+      <c r="H76" s="106" t="s">
         <v>274</v>
       </c>
-      <c r="I76" s="105"/>
+      <c r="I76" s="106"/>
       <c r="J76" s="1" t="s">
         <v>958</v>
       </c>
@@ -7555,24 +7552,24 @@
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="43"/>
-      <c r="H77" s="105"/>
-      <c r="I77" s="105"/>
+      <c r="H77" s="106"/>
+      <c r="I77" s="106"/>
       <c r="J77" s="1" t="s">
         <v>959</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="109" t="s">
+      <c r="B78" s="103" t="s">
         <v>254</v>
       </c>
       <c r="C78" s="42"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="43"/>
-      <c r="H78" s="110" t="s">
+      <c r="H78" s="104" t="s">
         <v>892</v>
       </c>
-      <c r="I78" s="103" t="s">
+      <c r="I78" s="105" t="s">
         <v>961</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -7580,43 +7577,43 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="109"/>
+      <c r="B79" s="103"/>
       <c r="C79" s="42"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="43"/>
-      <c r="H79" s="110"/>
-      <c r="I79" s="103"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="105"/>
     </row>
     <row r="80" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="109"/>
-      <c r="H80" s="110"/>
-      <c r="I80" s="103"/>
+      <c r="B80" s="103"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="105"/>
     </row>
     <row r="81" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="109"/>
-      <c r="H81" s="110"/>
-      <c r="I81" s="103"/>
+      <c r="B81" s="103"/>
+      <c r="H81" s="104"/>
+      <c r="I81" s="105"/>
     </row>
     <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="109"/>
-      <c r="H82" s="110"/>
-      <c r="I82" s="103"/>
+      <c r="B82" s="103"/>
+      <c r="H82" s="104"/>
+      <c r="I82" s="105"/>
     </row>
     <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="109"/>
-      <c r="H83" s="110"/>
-      <c r="I83" s="103"/>
+      <c r="B83" s="103"/>
+      <c r="H83" s="104"/>
+      <c r="I83" s="105"/>
     </row>
     <row r="84" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="109"/>
-      <c r="H84" s="110"/>
-      <c r="I84" s="103"/>
+      <c r="B84" s="103"/>
+      <c r="H84" s="104"/>
+      <c r="I84" s="105"/>
     </row>
     <row r="85" spans="2:10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="109"/>
-      <c r="H85" s="110"/>
-      <c r="I85" s="103"/>
+      <c r="B85" s="103"/>
+      <c r="H85" s="104"/>
+      <c r="I85" s="105"/>
       <c r="J85" s="1" t="s">
         <v>776</v>
       </c>
@@ -7902,6 +7899,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I28:I37"/>
+    <mergeCell ref="H38:H47"/>
+    <mergeCell ref="I38:I47"/>
+    <mergeCell ref="H76:I77"/>
     <mergeCell ref="D2:D47"/>
     <mergeCell ref="B78:B85"/>
     <mergeCell ref="H78:H85"/>
@@ -7918,10 +7919,6 @@
     <mergeCell ref="I18:I27"/>
     <mergeCell ref="F28:F47"/>
     <mergeCell ref="H28:H37"/>
-    <mergeCell ref="I28:I37"/>
-    <mergeCell ref="H38:H47"/>
-    <mergeCell ref="I38:I47"/>
-    <mergeCell ref="H76:I77"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
@@ -10572,8 +10569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P266"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10782,9 +10779,7 @@
         <v>307</v>
       </c>
       <c r="D10" s="77"/>
-      <c r="E10" s="69" t="s">
-        <v>1766</v>
-      </c>
+      <c r="E10" s="69"/>
       <c r="F10" s="77"/>
       <c r="G10" s="77"/>
       <c r="H10" s="77"/>
@@ -14926,8 +14921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozenSplit"/>
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
@@ -15040,11 +15035,11 @@
       <c r="R5" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="T5" s="149" t="s">
+      <c r="T5" s="181" t="s">
         <v>1762</v>
       </c>
-      <c r="U5" s="149"/>
-      <c r="V5" s="149"/>
+      <c r="U5" s="181"/>
+      <c r="V5" s="181"/>
       <c r="AA5" s="41" t="s">
         <v>780</v>
       </c>
@@ -15073,9 +15068,9 @@
       <c r="R6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="T6" s="149"/>
-      <c r="U6" s="149"/>
-      <c r="V6" s="149"/>
+      <c r="T6" s="181"/>
+      <c r="U6" s="181"/>
+      <c r="V6" s="181"/>
       <c r="AA6" s="41" t="s">
         <v>781</v>
       </c>
@@ -15106,9 +15101,9 @@
       <c r="R7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="T7" s="149"/>
-      <c r="U7" s="149"/>
-      <c r="V7" s="149"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
       <c r="AA7" s="41" t="s">
         <v>782</v>
       </c>
@@ -15139,9 +15134,9 @@
       <c r="R8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
       <c r="AA8" s="41" t="s">
         <v>783</v>
       </c>
@@ -15172,9 +15167,9 @@
       <c r="R9" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="T9" s="149"/>
-      <c r="U9" s="149"/>
-      <c r="V9" s="149"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="181"/>
+      <c r="V9" s="181"/>
       <c r="AA9" s="41" t="s">
         <v>784</v>
       </c>
@@ -15227,11 +15222,11 @@
       <c r="R10" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="T10" s="150" t="s">
+      <c r="T10" s="182" t="s">
         <v>1765</v>
       </c>
-      <c r="U10" s="151"/>
-      <c r="V10" s="152"/>
+      <c r="U10" s="183"/>
+      <c r="V10" s="184"/>
       <c r="AA10" s="41" t="s">
         <v>785</v>
       </c>
@@ -15291,11 +15286,11 @@
         <v>220</v>
       </c>
       <c r="S11" s="45"/>
-      <c r="T11" s="150" t="s">
-        <v>1767</v>
-      </c>
-      <c r="U11" s="151"/>
-      <c r="V11" s="152"/>
+      <c r="T11" s="182" t="s">
+        <v>1766</v>
+      </c>
+      <c r="U11" s="183"/>
+      <c r="V11" s="184"/>
       <c r="AA11" s="41" t="s">
         <v>786</v>
       </c>
@@ -15358,17 +15353,17 @@
       <c r="R12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="T12" s="180" t="s">
+      <c r="T12" s="158" t="s">
         <v>1251</v>
       </c>
-      <c r="U12" s="181"/>
-      <c r="V12" s="182"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="160"/>
       <c r="X12" s="65"/>
       <c r="AA12" s="41" t="s">
         <v>787</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -15426,9 +15421,9 @@
       <c r="R13" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="T13" s="192"/>
-      <c r="U13" s="193"/>
-      <c r="V13" s="194"/>
+      <c r="T13" s="176"/>
+      <c r="U13" s="177"/>
+      <c r="V13" s="178"/>
       <c r="X13" s="48"/>
       <c r="AA13" s="41" t="s">
         <v>788</v>
@@ -15490,11 +15485,11 @@
       <c r="R14" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="T14" s="168" t="s">
+      <c r="T14" s="167" t="s">
         <v>1252</v>
       </c>
-      <c r="U14" s="169"/>
-      <c r="V14" s="170"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="169"/>
       <c r="AA14" s="41" t="s">
         <v>789</v>
       </c>
@@ -15555,11 +15550,11 @@
       <c r="R15" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="T15" s="183" t="s">
+      <c r="T15" s="161" t="s">
         <v>1253</v>
       </c>
-      <c r="U15" s="184"/>
-      <c r="V15" s="185"/>
+      <c r="U15" s="162"/>
+      <c r="V15" s="163"/>
       <c r="X15" s="12"/>
       <c r="AA15" s="41" t="s">
         <v>790</v>
@@ -15598,11 +15593,11 @@
       <c r="R16" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="T16" s="150" t="s">
+      <c r="T16" s="182" t="s">
         <v>1763</v>
       </c>
-      <c r="U16" s="151"/>
-      <c r="V16" s="152"/>
+      <c r="U16" s="183"/>
+      <c r="V16" s="184"/>
       <c r="X16" s="12"/>
       <c r="AA16" s="41" t="s">
         <v>791</v>
@@ -15636,11 +15631,11 @@
       <c r="R17" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="T17" s="153" t="s">
+      <c r="T17" s="185" t="s">
         <v>1718</v>
       </c>
-      <c r="U17" s="154"/>
-      <c r="V17" s="155"/>
+      <c r="U17" s="186"/>
+      <c r="V17" s="187"/>
       <c r="W17" s="64"/>
       <c r="X17" s="64"/>
       <c r="AA17" s="41" t="s">
@@ -15702,9 +15697,9 @@
       <c r="R18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="T18" s="156"/>
-      <c r="U18" s="157"/>
-      <c r="V18" s="158"/>
+      <c r="T18" s="188"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="190"/>
       <c r="W18" s="64"/>
       <c r="X18" s="64"/>
       <c r="AA18" s="41" t="s">
@@ -15766,9 +15761,9 @@
       <c r="R19" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="T19" s="156"/>
-      <c r="U19" s="157"/>
-      <c r="V19" s="158"/>
+      <c r="T19" s="188"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="190"/>
       <c r="W19" s="64"/>
       <c r="X19" s="64"/>
       <c r="AA19" s="41" t="s">
@@ -15833,9 +15828,9 @@
       <c r="R20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T20" s="159"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="161"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="192"/>
+      <c r="V20" s="193"/>
       <c r="AA20" s="41" t="s">
         <v>795</v>
       </c>
@@ -15904,11 +15899,11 @@
       <c r="R23" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="T23" s="195" t="s">
+      <c r="T23" s="179" t="s">
         <v>535</v>
       </c>
-      <c r="U23" s="195"/>
-      <c r="V23" s="195"/>
+      <c r="U23" s="179"/>
+      <c r="V23" s="179"/>
       <c r="W23" s="45" t="s">
         <v>1111</v>
       </c>
@@ -15968,11 +15963,11 @@
       <c r="R24" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="T24" s="196" t="s">
+      <c r="T24" s="180" t="s">
         <v>536</v>
       </c>
-      <c r="U24" s="196"/>
-      <c r="V24" s="196"/>
+      <c r="U24" s="180"/>
+      <c r="V24" s="180"/>
       <c r="W24" s="45" t="s">
         <v>1226</v>
       </c>
@@ -16033,9 +16028,9 @@
       <c r="R25" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="T25" s="196"/>
-      <c r="U25" s="196"/>
-      <c r="V25" s="196"/>
+      <c r="T25" s="180"/>
+      <c r="U25" s="180"/>
+      <c r="V25" s="180"/>
       <c r="W25" s="45" t="s">
         <v>1147</v>
       </c>
@@ -16064,11 +16059,11 @@
       <c r="R26" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="T26" s="162" t="s">
+      <c r="T26" s="164" t="s">
         <v>1764</v>
       </c>
-      <c r="U26" s="163"/>
-      <c r="V26" s="164"/>
+      <c r="U26" s="165"/>
+      <c r="V26" s="166"/>
       <c r="W26" s="45" t="s">
         <v>1146</v>
       </c>
@@ -16097,9 +16092,9 @@
       <c r="R27" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="T27" s="165"/>
-      <c r="U27" s="166"/>
-      <c r="V27" s="167"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="195"/>
+      <c r="V27" s="196"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
@@ -16126,9 +16121,9 @@
       <c r="R28" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="T28" s="165"/>
-      <c r="U28" s="166"/>
-      <c r="V28" s="167"/>
+      <c r="T28" s="194"/>
+      <c r="U28" s="195"/>
+      <c r="V28" s="196"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
@@ -16157,9 +16152,9 @@
       <c r="R29" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="T29" s="168"/>
-      <c r="U29" s="169"/>
-      <c r="V29" s="170"/>
+      <c r="T29" s="167"/>
+      <c r="U29" s="168"/>
+      <c r="V29" s="169"/>
       <c r="W29" s="45" t="s">
         <v>1112</v>
       </c>
@@ -16220,11 +16215,11 @@
       <c r="R30" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="T30" s="162" t="s">
+      <c r="T30" s="164" t="s">
         <v>1385</v>
       </c>
-      <c r="U30" s="163"/>
-      <c r="V30" s="164"/>
+      <c r="U30" s="165"/>
+      <c r="V30" s="166"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
@@ -16283,9 +16278,9 @@
       <c r="R31" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="T31" s="168"/>
-      <c r="U31" s="169"/>
-      <c r="V31" s="170"/>
+      <c r="T31" s="167"/>
+      <c r="U31" s="168"/>
+      <c r="V31" s="169"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
@@ -16344,11 +16339,11 @@
       <c r="R32" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="T32" s="186" t="s">
+      <c r="T32" s="170" t="s">
         <v>1386</v>
       </c>
-      <c r="U32" s="187"/>
-      <c r="V32" s="188"/>
+      <c r="U32" s="171"/>
+      <c r="V32" s="172"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
@@ -16407,9 +16402,9 @@
       <c r="R33" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="T33" s="189"/>
-      <c r="U33" s="190"/>
-      <c r="V33" s="191"/>
+      <c r="T33" s="173"/>
+      <c r="U33" s="174"/>
+      <c r="V33" s="175"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
@@ -16436,11 +16431,11 @@
       <c r="R34" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="T34" s="149" t="s">
+      <c r="T34" s="181" t="s">
         <v>1405</v>
       </c>
-      <c r="U34" s="149"/>
-      <c r="V34" s="149"/>
+      <c r="U34" s="181"/>
+      <c r="V34" s="181"/>
     </row>
     <row r="35" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -16465,9 +16460,9 @@
       <c r="R35" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="T35" s="149"/>
-      <c r="U35" s="149"/>
-      <c r="V35" s="149"/>
+      <c r="T35" s="181"/>
+      <c r="U35" s="181"/>
+      <c r="V35" s="181"/>
     </row>
     <row r="36" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
@@ -16524,9 +16519,9 @@
       <c r="R36" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="T36" s="149"/>
-      <c r="U36" s="149"/>
-      <c r="V36" s="149"/>
+      <c r="T36" s="181"/>
+      <c r="U36" s="181"/>
+      <c r="V36" s="181"/>
     </row>
     <row r="37" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -16583,9 +16578,9 @@
       <c r="R37" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="T37" s="149"/>
-      <c r="U37" s="149"/>
-      <c r="V37" s="149"/>
+      <c r="T37" s="181"/>
+      <c r="U37" s="181"/>
+      <c r="V37" s="181"/>
     </row>
     <row r="38" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -16642,9 +16637,9 @@
       <c r="R38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="T38" s="149"/>
-      <c r="U38" s="149"/>
-      <c r="V38" s="149"/>
+      <c r="T38" s="181"/>
+      <c r="U38" s="181"/>
+      <c r="V38" s="181"/>
     </row>
     <row r="39" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" spans="1:24" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -19344,24 +19339,24 @@
       <c r="A131" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="B131" s="171" t="s">
+      <c r="B131" s="149" t="s">
         <v>1646</v>
       </c>
-      <c r="C131" s="172"/>
-      <c r="D131" s="172"/>
-      <c r="E131" s="172"/>
-      <c r="F131" s="172"/>
-      <c r="G131" s="172"/>
-      <c r="H131" s="172"/>
-      <c r="I131" s="172"/>
-      <c r="J131" s="172"/>
-      <c r="K131" s="172"/>
-      <c r="L131" s="172"/>
-      <c r="M131" s="172"/>
-      <c r="N131" s="172"/>
-      <c r="O131" s="172"/>
-      <c r="P131" s="172"/>
-      <c r="Q131" s="173"/>
+      <c r="C131" s="150"/>
+      <c r="D131" s="150"/>
+      <c r="E131" s="150"/>
+      <c r="F131" s="150"/>
+      <c r="G131" s="150"/>
+      <c r="H131" s="150"/>
+      <c r="I131" s="150"/>
+      <c r="J131" s="150"/>
+      <c r="K131" s="150"/>
+      <c r="L131" s="150"/>
+      <c r="M131" s="150"/>
+      <c r="N131" s="150"/>
+      <c r="O131" s="150"/>
+      <c r="P131" s="150"/>
+      <c r="Q131" s="151"/>
       <c r="R131" s="3" t="s">
         <v>874</v>
       </c>
@@ -19373,22 +19368,22 @@
       <c r="A132" s="3" t="s">
         <v>859</v>
       </c>
-      <c r="B132" s="174"/>
-      <c r="C132" s="175"/>
-      <c r="D132" s="175"/>
-      <c r="E132" s="175"/>
-      <c r="F132" s="175"/>
-      <c r="G132" s="175"/>
-      <c r="H132" s="175"/>
-      <c r="I132" s="175"/>
-      <c r="J132" s="175"/>
-      <c r="K132" s="175"/>
-      <c r="L132" s="175"/>
-      <c r="M132" s="175"/>
-      <c r="N132" s="175"/>
-      <c r="O132" s="175"/>
-      <c r="P132" s="175"/>
-      <c r="Q132" s="176"/>
+      <c r="B132" s="152"/>
+      <c r="C132" s="153"/>
+      <c r="D132" s="153"/>
+      <c r="E132" s="153"/>
+      <c r="F132" s="153"/>
+      <c r="G132" s="153"/>
+      <c r="H132" s="153"/>
+      <c r="I132" s="153"/>
+      <c r="J132" s="153"/>
+      <c r="K132" s="153"/>
+      <c r="L132" s="153"/>
+      <c r="M132" s="153"/>
+      <c r="N132" s="153"/>
+      <c r="O132" s="153"/>
+      <c r="P132" s="153"/>
+      <c r="Q132" s="154"/>
       <c r="R132" s="3" t="s">
         <v>875</v>
       </c>
@@ -19400,22 +19395,22 @@
       <c r="A133" s="3" t="s">
         <v>860</v>
       </c>
-      <c r="B133" s="174"/>
-      <c r="C133" s="175"/>
-      <c r="D133" s="175"/>
-      <c r="E133" s="175"/>
-      <c r="F133" s="175"/>
-      <c r="G133" s="175"/>
-      <c r="H133" s="175"/>
-      <c r="I133" s="175"/>
-      <c r="J133" s="175"/>
-      <c r="K133" s="175"/>
-      <c r="L133" s="175"/>
-      <c r="M133" s="175"/>
-      <c r="N133" s="175"/>
-      <c r="O133" s="175"/>
-      <c r="P133" s="175"/>
-      <c r="Q133" s="176"/>
+      <c r="B133" s="152"/>
+      <c r="C133" s="153"/>
+      <c r="D133" s="153"/>
+      <c r="E133" s="153"/>
+      <c r="F133" s="153"/>
+      <c r="G133" s="153"/>
+      <c r="H133" s="153"/>
+      <c r="I133" s="153"/>
+      <c r="J133" s="153"/>
+      <c r="K133" s="153"/>
+      <c r="L133" s="153"/>
+      <c r="M133" s="153"/>
+      <c r="N133" s="153"/>
+      <c r="O133" s="153"/>
+      <c r="P133" s="153"/>
+      <c r="Q133" s="154"/>
       <c r="R133" s="3" t="s">
         <v>876</v>
       </c>
@@ -19427,22 +19422,22 @@
       <c r="A134" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="B134" s="174"/>
-      <c r="C134" s="175"/>
-      <c r="D134" s="175"/>
-      <c r="E134" s="175"/>
-      <c r="F134" s="175"/>
-      <c r="G134" s="175"/>
-      <c r="H134" s="175"/>
-      <c r="I134" s="175"/>
-      <c r="J134" s="175"/>
-      <c r="K134" s="175"/>
-      <c r="L134" s="175"/>
-      <c r="M134" s="175"/>
-      <c r="N134" s="175"/>
-      <c r="O134" s="175"/>
-      <c r="P134" s="175"/>
-      <c r="Q134" s="176"/>
+      <c r="B134" s="152"/>
+      <c r="C134" s="153"/>
+      <c r="D134" s="153"/>
+      <c r="E134" s="153"/>
+      <c r="F134" s="153"/>
+      <c r="G134" s="153"/>
+      <c r="H134" s="153"/>
+      <c r="I134" s="153"/>
+      <c r="J134" s="153"/>
+      <c r="K134" s="153"/>
+      <c r="L134" s="153"/>
+      <c r="M134" s="153"/>
+      <c r="N134" s="153"/>
+      <c r="O134" s="153"/>
+      <c r="P134" s="153"/>
+      <c r="Q134" s="154"/>
       <c r="R134" s="3" t="s">
         <v>877</v>
       </c>
@@ -19454,22 +19449,22 @@
       <c r="A135" s="3" t="s">
         <v>862</v>
       </c>
-      <c r="B135" s="174"/>
-      <c r="C135" s="175"/>
-      <c r="D135" s="175"/>
-      <c r="E135" s="175"/>
-      <c r="F135" s="175"/>
-      <c r="G135" s="175"/>
-      <c r="H135" s="175"/>
-      <c r="I135" s="175"/>
-      <c r="J135" s="175"/>
-      <c r="K135" s="175"/>
-      <c r="L135" s="175"/>
-      <c r="M135" s="175"/>
-      <c r="N135" s="175"/>
-      <c r="O135" s="175"/>
-      <c r="P135" s="175"/>
-      <c r="Q135" s="176"/>
+      <c r="B135" s="152"/>
+      <c r="C135" s="153"/>
+      <c r="D135" s="153"/>
+      <c r="E135" s="153"/>
+      <c r="F135" s="153"/>
+      <c r="G135" s="153"/>
+      <c r="H135" s="153"/>
+      <c r="I135" s="153"/>
+      <c r="J135" s="153"/>
+      <c r="K135" s="153"/>
+      <c r="L135" s="153"/>
+      <c r="M135" s="153"/>
+      <c r="N135" s="153"/>
+      <c r="O135" s="153"/>
+      <c r="P135" s="153"/>
+      <c r="Q135" s="154"/>
       <c r="R135" s="3" t="s">
         <v>878</v>
       </c>
@@ -19481,22 +19476,22 @@
       <c r="A136" s="3" t="s">
         <v>863</v>
       </c>
-      <c r="B136" s="174"/>
-      <c r="C136" s="175"/>
-      <c r="D136" s="175"/>
-      <c r="E136" s="175"/>
-      <c r="F136" s="175"/>
-      <c r="G136" s="175"/>
-      <c r="H136" s="175"/>
-      <c r="I136" s="175"/>
-      <c r="J136" s="175"/>
-      <c r="K136" s="175"/>
-      <c r="L136" s="175"/>
-      <c r="M136" s="175"/>
-      <c r="N136" s="175"/>
-      <c r="O136" s="175"/>
-      <c r="P136" s="175"/>
-      <c r="Q136" s="176"/>
+      <c r="B136" s="152"/>
+      <c r="C136" s="153"/>
+      <c r="D136" s="153"/>
+      <c r="E136" s="153"/>
+      <c r="F136" s="153"/>
+      <c r="G136" s="153"/>
+      <c r="H136" s="153"/>
+      <c r="I136" s="153"/>
+      <c r="J136" s="153"/>
+      <c r="K136" s="153"/>
+      <c r="L136" s="153"/>
+      <c r="M136" s="153"/>
+      <c r="N136" s="153"/>
+      <c r="O136" s="153"/>
+      <c r="P136" s="153"/>
+      <c r="Q136" s="154"/>
       <c r="R136" s="3" t="s">
         <v>879</v>
       </c>
@@ -19508,22 +19503,22 @@
       <c r="A137" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="B137" s="174"/>
-      <c r="C137" s="175"/>
-      <c r="D137" s="175"/>
-      <c r="E137" s="175"/>
-      <c r="F137" s="175"/>
-      <c r="G137" s="175"/>
-      <c r="H137" s="175"/>
-      <c r="I137" s="175"/>
-      <c r="J137" s="175"/>
-      <c r="K137" s="175"/>
-      <c r="L137" s="175"/>
-      <c r="M137" s="175"/>
-      <c r="N137" s="175"/>
-      <c r="O137" s="175"/>
-      <c r="P137" s="175"/>
-      <c r="Q137" s="176"/>
+      <c r="B137" s="152"/>
+      <c r="C137" s="153"/>
+      <c r="D137" s="153"/>
+      <c r="E137" s="153"/>
+      <c r="F137" s="153"/>
+      <c r="G137" s="153"/>
+      <c r="H137" s="153"/>
+      <c r="I137" s="153"/>
+      <c r="J137" s="153"/>
+      <c r="K137" s="153"/>
+      <c r="L137" s="153"/>
+      <c r="M137" s="153"/>
+      <c r="N137" s="153"/>
+      <c r="O137" s="153"/>
+      <c r="P137" s="153"/>
+      <c r="Q137" s="154"/>
       <c r="R137" s="3" t="s">
         <v>880</v>
       </c>
@@ -19535,22 +19530,22 @@
       <c r="A138" s="3" t="s">
         <v>865</v>
       </c>
-      <c r="B138" s="174"/>
-      <c r="C138" s="175"/>
-      <c r="D138" s="175"/>
-      <c r="E138" s="175"/>
-      <c r="F138" s="175"/>
-      <c r="G138" s="175"/>
-      <c r="H138" s="175"/>
-      <c r="I138" s="175"/>
-      <c r="J138" s="175"/>
-      <c r="K138" s="175"/>
-      <c r="L138" s="175"/>
-      <c r="M138" s="175"/>
-      <c r="N138" s="175"/>
-      <c r="O138" s="175"/>
-      <c r="P138" s="175"/>
-      <c r="Q138" s="176"/>
+      <c r="B138" s="152"/>
+      <c r="C138" s="153"/>
+      <c r="D138" s="153"/>
+      <c r="E138" s="153"/>
+      <c r="F138" s="153"/>
+      <c r="G138" s="153"/>
+      <c r="H138" s="153"/>
+      <c r="I138" s="153"/>
+      <c r="J138" s="153"/>
+      <c r="K138" s="153"/>
+      <c r="L138" s="153"/>
+      <c r="M138" s="153"/>
+      <c r="N138" s="153"/>
+      <c r="O138" s="153"/>
+      <c r="P138" s="153"/>
+      <c r="Q138" s="154"/>
       <c r="R138" s="3" t="s">
         <v>881</v>
       </c>
@@ -19562,22 +19557,22 @@
       <c r="A139" s="3" t="s">
         <v>866</v>
       </c>
-      <c r="B139" s="174"/>
-      <c r="C139" s="175"/>
-      <c r="D139" s="175"/>
-      <c r="E139" s="175"/>
-      <c r="F139" s="175"/>
-      <c r="G139" s="175"/>
-      <c r="H139" s="175"/>
-      <c r="I139" s="175"/>
-      <c r="J139" s="175"/>
-      <c r="K139" s="175"/>
-      <c r="L139" s="175"/>
-      <c r="M139" s="175"/>
-      <c r="N139" s="175"/>
-      <c r="O139" s="175"/>
-      <c r="P139" s="175"/>
-      <c r="Q139" s="176"/>
+      <c r="B139" s="152"/>
+      <c r="C139" s="153"/>
+      <c r="D139" s="153"/>
+      <c r="E139" s="153"/>
+      <c r="F139" s="153"/>
+      <c r="G139" s="153"/>
+      <c r="H139" s="153"/>
+      <c r="I139" s="153"/>
+      <c r="J139" s="153"/>
+      <c r="K139" s="153"/>
+      <c r="L139" s="153"/>
+      <c r="M139" s="153"/>
+      <c r="N139" s="153"/>
+      <c r="O139" s="153"/>
+      <c r="P139" s="153"/>
+      <c r="Q139" s="154"/>
       <c r="R139" s="3" t="s">
         <v>882</v>
       </c>
@@ -19589,22 +19584,22 @@
       <c r="A140" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="B140" s="174"/>
-      <c r="C140" s="175"/>
-      <c r="D140" s="175"/>
-      <c r="E140" s="175"/>
-      <c r="F140" s="175"/>
-      <c r="G140" s="175"/>
-      <c r="H140" s="175"/>
-      <c r="I140" s="175"/>
-      <c r="J140" s="175"/>
-      <c r="K140" s="175"/>
-      <c r="L140" s="175"/>
-      <c r="M140" s="175"/>
-      <c r="N140" s="175"/>
-      <c r="O140" s="175"/>
-      <c r="P140" s="175"/>
-      <c r="Q140" s="176"/>
+      <c r="B140" s="152"/>
+      <c r="C140" s="153"/>
+      <c r="D140" s="153"/>
+      <c r="E140" s="153"/>
+      <c r="F140" s="153"/>
+      <c r="G140" s="153"/>
+      <c r="H140" s="153"/>
+      <c r="I140" s="153"/>
+      <c r="J140" s="153"/>
+      <c r="K140" s="153"/>
+      <c r="L140" s="153"/>
+      <c r="M140" s="153"/>
+      <c r="N140" s="153"/>
+      <c r="O140" s="153"/>
+      <c r="P140" s="153"/>
+      <c r="Q140" s="154"/>
       <c r="R140" s="3" t="s">
         <v>883</v>
       </c>
@@ -19616,22 +19611,22 @@
       <c r="A141" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="B141" s="174"/>
-      <c r="C141" s="175"/>
-      <c r="D141" s="175"/>
-      <c r="E141" s="175"/>
-      <c r="F141" s="175"/>
-      <c r="G141" s="175"/>
-      <c r="H141" s="175"/>
-      <c r="I141" s="175"/>
-      <c r="J141" s="175"/>
-      <c r="K141" s="175"/>
-      <c r="L141" s="175"/>
-      <c r="M141" s="175"/>
-      <c r="N141" s="175"/>
-      <c r="O141" s="175"/>
-      <c r="P141" s="175"/>
-      <c r="Q141" s="176"/>
+      <c r="B141" s="152"/>
+      <c r="C141" s="153"/>
+      <c r="D141" s="153"/>
+      <c r="E141" s="153"/>
+      <c r="F141" s="153"/>
+      <c r="G141" s="153"/>
+      <c r="H141" s="153"/>
+      <c r="I141" s="153"/>
+      <c r="J141" s="153"/>
+      <c r="K141" s="153"/>
+      <c r="L141" s="153"/>
+      <c r="M141" s="153"/>
+      <c r="N141" s="153"/>
+      <c r="O141" s="153"/>
+      <c r="P141" s="153"/>
+      <c r="Q141" s="154"/>
       <c r="R141" s="3" t="s">
         <v>884</v>
       </c>
@@ -19643,22 +19638,22 @@
       <c r="A142" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="B142" s="174"/>
-      <c r="C142" s="175"/>
-      <c r="D142" s="175"/>
-      <c r="E142" s="175"/>
-      <c r="F142" s="175"/>
-      <c r="G142" s="175"/>
-      <c r="H142" s="175"/>
-      <c r="I142" s="175"/>
-      <c r="J142" s="175"/>
-      <c r="K142" s="175"/>
-      <c r="L142" s="175"/>
-      <c r="M142" s="175"/>
-      <c r="N142" s="175"/>
-      <c r="O142" s="175"/>
-      <c r="P142" s="175"/>
-      <c r="Q142" s="176"/>
+      <c r="B142" s="152"/>
+      <c r="C142" s="153"/>
+      <c r="D142" s="153"/>
+      <c r="E142" s="153"/>
+      <c r="F142" s="153"/>
+      <c r="G142" s="153"/>
+      <c r="H142" s="153"/>
+      <c r="I142" s="153"/>
+      <c r="J142" s="153"/>
+      <c r="K142" s="153"/>
+      <c r="L142" s="153"/>
+      <c r="M142" s="153"/>
+      <c r="N142" s="153"/>
+      <c r="O142" s="153"/>
+      <c r="P142" s="153"/>
+      <c r="Q142" s="154"/>
       <c r="R142" s="3" t="s">
         <v>885</v>
       </c>
@@ -19670,22 +19665,22 @@
       <c r="A143" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="B143" s="174"/>
-      <c r="C143" s="175"/>
-      <c r="D143" s="175"/>
-      <c r="E143" s="175"/>
-      <c r="F143" s="175"/>
-      <c r="G143" s="175"/>
-      <c r="H143" s="175"/>
-      <c r="I143" s="175"/>
-      <c r="J143" s="175"/>
-      <c r="K143" s="175"/>
-      <c r="L143" s="175"/>
-      <c r="M143" s="175"/>
-      <c r="N143" s="175"/>
-      <c r="O143" s="175"/>
-      <c r="P143" s="175"/>
-      <c r="Q143" s="176"/>
+      <c r="B143" s="152"/>
+      <c r="C143" s="153"/>
+      <c r="D143" s="153"/>
+      <c r="E143" s="153"/>
+      <c r="F143" s="153"/>
+      <c r="G143" s="153"/>
+      <c r="H143" s="153"/>
+      <c r="I143" s="153"/>
+      <c r="J143" s="153"/>
+      <c r="K143" s="153"/>
+      <c r="L143" s="153"/>
+      <c r="M143" s="153"/>
+      <c r="N143" s="153"/>
+      <c r="O143" s="153"/>
+      <c r="P143" s="153"/>
+      <c r="Q143" s="154"/>
       <c r="R143" s="3" t="s">
         <v>886</v>
       </c>
@@ -19697,22 +19692,22 @@
       <c r="A144" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="B144" s="174"/>
-      <c r="C144" s="175"/>
-      <c r="D144" s="175"/>
-      <c r="E144" s="175"/>
-      <c r="F144" s="175"/>
-      <c r="G144" s="175"/>
-      <c r="H144" s="175"/>
-      <c r="I144" s="175"/>
-      <c r="J144" s="175"/>
-      <c r="K144" s="175"/>
-      <c r="L144" s="175"/>
-      <c r="M144" s="175"/>
-      <c r="N144" s="175"/>
-      <c r="O144" s="175"/>
-      <c r="P144" s="175"/>
-      <c r="Q144" s="176"/>
+      <c r="B144" s="152"/>
+      <c r="C144" s="153"/>
+      <c r="D144" s="153"/>
+      <c r="E144" s="153"/>
+      <c r="F144" s="153"/>
+      <c r="G144" s="153"/>
+      <c r="H144" s="153"/>
+      <c r="I144" s="153"/>
+      <c r="J144" s="153"/>
+      <c r="K144" s="153"/>
+      <c r="L144" s="153"/>
+      <c r="M144" s="153"/>
+      <c r="N144" s="153"/>
+      <c r="O144" s="153"/>
+      <c r="P144" s="153"/>
+      <c r="Q144" s="154"/>
       <c r="R144" s="3" t="s">
         <v>887</v>
       </c>
@@ -19724,22 +19719,22 @@
       <c r="A145" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="B145" s="174"/>
-      <c r="C145" s="175"/>
-      <c r="D145" s="175"/>
-      <c r="E145" s="175"/>
-      <c r="F145" s="175"/>
-      <c r="G145" s="175"/>
-      <c r="H145" s="175"/>
-      <c r="I145" s="175"/>
-      <c r="J145" s="175"/>
-      <c r="K145" s="175"/>
-      <c r="L145" s="175"/>
-      <c r="M145" s="175"/>
-      <c r="N145" s="175"/>
-      <c r="O145" s="175"/>
-      <c r="P145" s="175"/>
-      <c r="Q145" s="176"/>
+      <c r="B145" s="152"/>
+      <c r="C145" s="153"/>
+      <c r="D145" s="153"/>
+      <c r="E145" s="153"/>
+      <c r="F145" s="153"/>
+      <c r="G145" s="153"/>
+      <c r="H145" s="153"/>
+      <c r="I145" s="153"/>
+      <c r="J145" s="153"/>
+      <c r="K145" s="153"/>
+      <c r="L145" s="153"/>
+      <c r="M145" s="153"/>
+      <c r="N145" s="153"/>
+      <c r="O145" s="153"/>
+      <c r="P145" s="153"/>
+      <c r="Q145" s="154"/>
       <c r="R145" s="3" t="s">
         <v>888</v>
       </c>
@@ -19751,22 +19746,22 @@
       <c r="A146" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="B146" s="177"/>
-      <c r="C146" s="178"/>
-      <c r="D146" s="178"/>
-      <c r="E146" s="178"/>
-      <c r="F146" s="178"/>
-      <c r="G146" s="178"/>
-      <c r="H146" s="178"/>
-      <c r="I146" s="178"/>
-      <c r="J146" s="178"/>
-      <c r="K146" s="178"/>
-      <c r="L146" s="178"/>
-      <c r="M146" s="178"/>
-      <c r="N146" s="178"/>
-      <c r="O146" s="178"/>
-      <c r="P146" s="178"/>
-      <c r="Q146" s="179"/>
+      <c r="B146" s="155"/>
+      <c r="C146" s="156"/>
+      <c r="D146" s="156"/>
+      <c r="E146" s="156"/>
+      <c r="F146" s="156"/>
+      <c r="G146" s="156"/>
+      <c r="H146" s="156"/>
+      <c r="I146" s="156"/>
+      <c r="J146" s="156"/>
+      <c r="K146" s="156"/>
+      <c r="L146" s="156"/>
+      <c r="M146" s="156"/>
+      <c r="N146" s="156"/>
+      <c r="O146" s="156"/>
+      <c r="P146" s="156"/>
+      <c r="Q146" s="157"/>
       <c r="R146" s="3" t="s">
         <v>889</v>
       </c>
@@ -22347,6 +22342,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="16">
+    <mergeCell ref="T5:V9"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T17:V20"/>
+    <mergeCell ref="T26:V29"/>
+    <mergeCell ref="T34:V38"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
     <mergeCell ref="B131:Q146"/>
     <mergeCell ref="T12:V12"/>
     <mergeCell ref="T15:V15"/>
@@ -22356,13 +22358,6 @@
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="T23:V23"/>
     <mergeCell ref="T24:V25"/>
-    <mergeCell ref="T5:V9"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T17:V20"/>
-    <mergeCell ref="T26:V29"/>
-    <mergeCell ref="T34:V38"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T11:V11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="1.3779527559055118" bottom="0.98425196850393704" header="0.70866141732283472" footer="0.31496062992125984"/>
